--- a/results/Homeopathy_excluded/mod3.lrgenBYhealth.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.lrgenBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00853206969314007</v>
+        <v>0.00853163688270165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0195009503325303</v>
+        <v>0.0195008768709381</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0296890906229237</v>
+        <v>-0.0296893794512871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0467532300092039</v>
+        <v>0.0467526532166904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.437520712973018</v>
+        <v>0.437500166744617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.661733757905605</v>
+        <v>0.661748655181138</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0206088981983822</v>
+        <v>0.0206096535647792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0437433085430911</v>
+        <v>0.0437430912165306</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0651264111106997</v>
+        <v>-0.0651252297920711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.106344207507464</v>
+        <v>0.106344536921629</v>
       </c>
       <c r="G3" t="n">
-        <v>0.471132588841114</v>
+        <v>0.471152197789596</v>
       </c>
       <c r="H3" t="n">
-        <v>0.637546054235327</v>
+        <v>0.637532052138563</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0170804599245745</v>
+        <v>-0.0170805675740078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0169382461824152</v>
+        <v>0.0169381761889421</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0502788124033812</v>
+        <v>-0.0502787828681282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0161178925542323</v>
+        <v>0.0161176477201125</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.00839601341412</v>
+        <v>-1.00840653583228</v>
       </c>
       <c r="H4" t="n">
-        <v>0.313264386017338</v>
+        <v>0.313259336563304</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0120605079669478</v>
+        <v>-0.012060722873473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0156414494855085</v>
+        <v>0.0156413772942695</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0427171856245469</v>
+        <v>-0.0427172590388439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0185961696906514</v>
+        <v>0.0185958132918978</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.771060762502964</v>
+        <v>-0.771078060874578</v>
       </c>
       <c r="H5" t="n">
-        <v>0.440670916518719</v>
+        <v>0.440660663758087</v>
       </c>
     </row>
   </sheetData>
